--- a/data/Rivers/WaikawaatusManakauConfluence_28c7814273.xlsx
+++ b/data/Rivers/WaikawaatusManakauConfluence_28c7814273.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -554,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -585,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -678,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -709,7 +709,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -740,7 +740,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -767,7 +767,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -794,7 +794,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -821,7 +821,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -914,7 +914,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -976,7 +976,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ASPM</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>QMCI</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">

--- a/data/Rivers/WaikawaatusManakauConfluence_28c7814273.xlsx
+++ b/data/Rivers/WaikawaatusManakauConfluence_28c7814273.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="82">
   <si>
     <t>site name</t>
   </si>
@@ -58,6 +58,9 @@
     <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
   </si>
   <si>
+    <t>Dissolved Oxygen Concentration</t>
+  </si>
+  <si>
     <t>1.000</t>
   </si>
   <si>
@@ -232,7 +235,31 @@
     <t>6.940</t>
   </si>
   <si>
+    <t>7.000</t>
+  </si>
+  <si>
+    <t>7.010</t>
+  </si>
+  <si>
+    <t>10.150</t>
+  </si>
+  <si>
+    <t>7.310</t>
+  </si>
+  <si>
+    <t>8.300</t>
+  </si>
+  <si>
+    <t>7.150</t>
+  </si>
+  <si>
+    <t>Investigation - Ohau Waikawa</t>
+  </si>
+  <si>
     <t>mg/m2</t>
+  </si>
+  <si>
+    <t>g/m3</t>
   </si>
 </sst>
 </file>
@@ -594,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,10 +667,10 @@
         <v>42220</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -660,10 +687,10 @@
         <v>42248.50137731482</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -680,10 +707,10 @@
         <v>42283.51403935185</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -700,10 +727,10 @@
         <v>42311.44894675926</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>200</v>
@@ -720,10 +747,10 @@
         <v>42339.46096064815</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -740,10 +767,10 @@
         <v>42381.45175925926</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -760,10 +787,10 @@
         <v>42409.59664351852</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -780,10 +807,10 @@
         <v>42430.43030092592</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -800,7 +827,7 @@
         <v>42461</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -817,7 +844,7 @@
         <v>42461</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -834,7 +861,7 @@
         <v>42461</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -851,10 +878,10 @@
         <v>42465.56957175926</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -871,10 +898,10 @@
         <v>42528.46135416667</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -891,10 +918,10 @@
         <v>42556.45378472222</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H15">
         <v>200</v>
@@ -911,10 +938,10 @@
         <v>42591.46289351852</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H16">
         <v>200</v>
@@ -931,10 +958,10 @@
         <v>42619.43310185185</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H17">
         <v>200</v>
@@ -951,10 +978,10 @@
         <v>42647.53248842592</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H18">
         <v>200</v>
@@ -971,10 +998,10 @@
         <v>42682.46340277778</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H19">
         <v>200</v>
@@ -991,10 +1018,10 @@
         <v>42710.4246412037</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H20">
         <v>200</v>
@@ -1011,10 +1038,10 @@
         <v>42745.43483796297</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H21">
         <v>200</v>
@@ -1031,10 +1058,10 @@
         <v>42776.43530092593</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H22">
         <v>200</v>
@@ -1051,7 +1078,7 @@
         <v>42797</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>200</v>
@@ -1068,7 +1095,7 @@
         <v>42797</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>200</v>
@@ -1085,7 +1112,7 @@
         <v>42797</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>200</v>
@@ -1102,10 +1129,10 @@
         <v>42801.55975694444</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H26">
         <v>200</v>
@@ -1122,10 +1149,10 @@
         <v>42857.49699074074</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H27">
         <v>200</v>
@@ -1142,10 +1169,10 @@
         <v>42892.42534722222</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H28">
         <v>200</v>
@@ -1162,10 +1189,10 @@
         <v>42920.52971064814</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H29">
         <v>200</v>
@@ -1182,10 +1209,10 @@
         <v>42955.55633101852</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H30">
         <v>200</v>
@@ -1202,10 +1229,10 @@
         <v>42983.53016203704</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H31">
         <v>200</v>
@@ -1222,10 +1249,10 @@
         <v>43011.5425925926</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H32">
         <v>200</v>
@@ -1242,10 +1269,10 @@
         <v>43046.4325</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -1262,10 +1289,10 @@
         <v>43074.53171296296</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H34">
         <v>200</v>
@@ -1282,10 +1309,10 @@
         <v>43109.4615625</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H35">
         <v>200</v>
@@ -1302,10 +1329,10 @@
         <v>43138.44061342593</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H36">
         <v>200</v>
@@ -1322,10 +1349,10 @@
         <v>43165.43864583333</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H37">
         <v>200</v>
@@ -1342,7 +1369,7 @@
         <v>43174</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H38">
         <v>200</v>
@@ -1359,7 +1386,7 @@
         <v>43174</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39">
         <v>200</v>
@@ -1376,7 +1403,7 @@
         <v>43174</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40">
         <v>200</v>
@@ -1393,10 +1420,10 @@
         <v>43193.57503472222</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H41">
         <v>200</v>
@@ -1413,10 +1440,10 @@
         <v>43228.43550925926</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H42">
         <v>200</v>
@@ -1433,10 +1460,10 @@
         <v>43256.92341435186</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H43">
         <v>200</v>
@@ -1453,10 +1480,10 @@
         <v>43284.41251157408</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H44">
         <v>200</v>
@@ -1473,10 +1500,10 @@
         <v>43319.50584490741</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G45" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H45">
         <v>200</v>
@@ -1493,10 +1520,10 @@
         <v>43347.43517361111</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H46">
         <v>200</v>
@@ -1513,10 +1540,10 @@
         <v>43375.40800925926</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G47" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H47">
         <v>200</v>
@@ -1533,10 +1560,10 @@
         <v>43410.59168981481</v>
       </c>
       <c r="D48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H48">
         <v>200</v>
@@ -1553,10 +1580,10 @@
         <v>43438.52221064815</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H49">
         <v>200</v>
@@ -1573,7 +1600,7 @@
         <v>43440</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H50">
         <v>200</v>
@@ -1590,7 +1617,7 @@
         <v>43440</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H51">
         <v>200</v>
@@ -1607,7 +1634,7 @@
         <v>43440</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H52">
         <v>200</v>
@@ -1624,10 +1651,10 @@
         <v>43473.46356481482</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H53">
         <v>200</v>
@@ -1644,10 +1671,10 @@
         <v>43500.47608796296</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H54">
         <v>200</v>
@@ -1664,10 +1691,10 @@
         <v>43529.57451388889</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G55" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H55">
         <v>200</v>
@@ -1684,10 +1711,10 @@
         <v>43557.54724537037</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H56">
         <v>200</v>
@@ -1704,10 +1731,10 @@
         <v>43592.56957175926</v>
       </c>
       <c r="D57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G57" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H57">
         <v>200</v>
@@ -1724,10 +1751,10 @@
         <v>43620.48305555555</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G58" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H58">
         <v>200</v>
@@ -1744,10 +1771,10 @@
         <v>43655.4254050926</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G59" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H59">
         <v>200</v>
@@ -1764,10 +1791,10 @@
         <v>43683.43414351852</v>
       </c>
       <c r="D60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H60">
         <v>200</v>
@@ -1784,7 +1811,7 @@
         <v>43843</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H61">
         <v>200</v>
@@ -1801,7 +1828,7 @@
         <v>43843</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H62">
         <v>200</v>
@@ -1818,7 +1845,7 @@
         <v>43843</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H63">
         <v>200</v>
@@ -1835,13 +1862,13 @@
         <v>44253</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H64">
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1852,13 +1879,13 @@
         <v>44253</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H65">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1869,10 +1896,166 @@
         <v>44253</v>
       </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H66">
         <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45345.49444444444</v>
+      </c>
+      <c r="D67" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H67">
+        <v>600</v>
+      </c>
+      <c r="I67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45345.49444444444</v>
+      </c>
+      <c r="D68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>600</v>
+      </c>
+      <c r="I68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45370.47916666666</v>
+      </c>
+      <c r="D69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E69" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69">
+        <v>600</v>
+      </c>
+      <c r="I69" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45370.47916666666</v>
+      </c>
+      <c r="D70" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70">
+        <v>600</v>
+      </c>
+      <c r="I70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45392.50277777778</v>
+      </c>
+      <c r="D71" t="s">
+        <v>77</v>
+      </c>
+      <c r="E71" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71">
+        <v>600</v>
+      </c>
+      <c r="I71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45392.50277777778</v>
+      </c>
+      <c r="D72" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72">
+        <v>600</v>
+      </c>
+      <c r="I72" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
